--- a/data/trans_dic/P56$nadie-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Habitat-trans_dic.xlsx
@@ -717,25 +717,25 @@
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.02358466075920285</v>
+        <v>0.02369426719509504</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0526046964261184</v>
+        <v>0.07150585002826861</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006742561082250562</v>
+        <v>0.005382451591753783</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01929474722544532</v>
+        <v>0.01930676107600157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04740009775332234</v>
+        <v>0.03921393152475377</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009851285337479625</v>
+        <v>0.01019224619891289</v>
       </c>
     </row>
     <row r="6">
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.302961448089845</v>
+        <v>0.3012465244639048</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1099250201390539</v>
+        <v>0.1006378177679147</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1925619462674504</v>
+        <v>0.1987238747358976</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3075343581017839</v>
+        <v>0.3175500630877793</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05345450876183807</v>
+        <v>0.0503037744446549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1757257621607841</v>
+        <v>0.1508671185000325</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1556462645169361</v>
+        <v>0.159521767419924</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2217170420474362</v>
+        <v>0.2253734100961726</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05549437525578911</v>
+        <v>0.05350442784768769</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1302338543845754</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04216871145011483</v>
+        <v>0.04216871145011484</v>
       </c>
     </row>
     <row r="8">
@@ -845,25 +845,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01619550112065558</v>
+        <v>0.01604409378865744</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05812632161430917</v>
+        <v>0.0562000930547866</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01602615048455125</v>
+        <v>0.01720297516176891</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01215326121356504</v>
+        <v>0.01216965305284019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05446628283036611</v>
+        <v>0.06059329242638305</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01913744473373052</v>
+        <v>0.01880219487927369</v>
       </c>
     </row>
     <row r="9">
@@ -875,37 +875,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.1311241062751488</v>
+        <v>0.1633345033699285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.280077427336253</v>
+        <v>0.2675238500024034</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1962915775385806</v>
+        <v>0.1699077267527991</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3014213417599781</v>
+        <v>0.2408174688357394</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1381822155579107</v>
+        <v>0.139120209862138</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3098300789377307</v>
+        <v>0.2941475727467919</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08135462634901752</v>
+        <v>0.08102110805965849</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1415358340847427</v>
+        <v>0.1558763105204204</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1051303652860157</v>
+        <v>0.1164332463406963</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2524945625101938</v>
+        <v>0.2557435572180204</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08503592821383395</v>
+        <v>0.0824184374722625</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.0291538976318261</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08148826126445059</v>
+        <v>0.08148826126445061</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1227232393756282</v>
@@ -953,7 +953,7 @@
         <v>0.09720327423176991</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06749034815875912</v>
+        <v>0.06749034815875909</v>
       </c>
     </row>
     <row r="11">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04688076704380371</v>
+        <v>0.04766193642000183</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03805982106071706</v>
+        <v>0.03050575669813039</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03113019918822543</v>
+        <v>0.03166128061731201</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02892934593115849</v>
+        <v>0.0330890962341739</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02801381302154548</v>
+        <v>0.02919176204654111</v>
       </c>
     </row>
     <row r="12">
@@ -1008,40 +1008,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5762211681068399</v>
+        <v>0.4643858654633851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3483786797688709</v>
+        <v>0.3367168007819121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5259736715419502</v>
+        <v>0.5182839019656506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1916485580195129</v>
+        <v>0.1684091681753136</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3748484042283019</v>
+        <v>0.3969701626815771</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1333281547994618</v>
+        <v>0.1223722874288969</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1643377703578992</v>
+        <v>0.1257855069497269</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.176176326841727</v>
+        <v>0.1597003487599329</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3325251957337444</v>
+        <v>0.3050495710559603</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1177090962306661</v>
+        <v>0.1137230172729679</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2192642104555579</v>
+        <v>0.241372943434141</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.127754602312795</v>
+        <v>0.1245737543957668</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08477462095839022</v>
+        <v>0.08477462095839024</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2007500560053227</v>
@@ -1105,31 +1105,31 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.03051473479185778</v>
+        <v>0.03203674906904203</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07551983885986716</v>
+        <v>0.08960182326268896</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04155892853210492</v>
+        <v>0.05276060851100901</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1599722375642129</v>
+        <v>0.1442090227787831</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02246947992858564</v>
+        <v>0.02542243499014962</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08720553535203911</v>
+        <v>0.08704858066601392</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02672499172410644</v>
+        <v>0.02655243018028696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1230796333940292</v>
+        <v>0.1136129157528907</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03416635144396381</v>
+        <v>0.03404353552824733</v>
       </c>
     </row>
     <row r="15">
@@ -1140,36 +1140,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3750798725815095</v>
+        <v>0.3738664082917187</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1857101658422822</v>
+        <v>0.1780004324473826</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3886351329736884</v>
+        <v>0.3788248507087957</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2216301860454989</v>
+        <v>0.223574371127633</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4425269673513172</v>
+        <v>0.4090152476710971</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09371423885167232</v>
+        <v>0.09266362748167113</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3093540800533092</v>
+        <v>0.3285854547687765</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1559687413232124</v>
+        <v>0.1561915666897711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3462511665878573</v>
+        <v>0.3255934036133573</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09911280677086956</v>
+        <v>0.0973838305955718</v>
       </c>
     </row>
     <row r="16">
@@ -1228,40 +1228,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
     </row>
     <row r="18">
@@ -1272,40 +1272,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="19">
@@ -1585,25 +1585,25 @@
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2095</v>
+        <v>2847</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2787</v>
+        <v>2305</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7">
@@ -1614,34 +1614,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3966</v>
+        <v>3944</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>2868</v>
+        <v>2625</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>8880</v>
+        <v>9164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12246</v>
+        <v>12645</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3517</v>
+        <v>3310</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5180</v>
+        <v>4447</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8825</v>
+        <v>9045</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13035</v>
+        <v>13250</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5099</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="8">
@@ -1757,25 +1757,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2387</v>
+        <v>2308</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1187</v>
+        <v>1274</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3299</v>
+        <v>3670</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1919</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="11">
@@ -1787,37 +1787,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4248</v>
+        <v>5292</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5461</v>
+        <v>5216</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5153</v>
+        <v>4461</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8250</v>
+        <v>6591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9074</v>
+        <v>9135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12723</v>
+        <v>12079</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6023</v>
+        <v>5999</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5992</v>
+        <v>6599</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10309</v>
+        <v>11418</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15292</v>
+        <v>15489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8528</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="12">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1815</v>
+        <v>1455</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1522</v>
+        <v>1741</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1984</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15">
@@ -1964,40 +1964,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4008</v>
+        <v>3230</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4869</v>
+        <v>4706</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9247</v>
+        <v>9111</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4431</v>
+        <v>3894</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6615</v>
+        <v>7005</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5626</v>
+        <v>5164</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5760</v>
+        <v>4409</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8402</v>
+        <v>7616</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8180</v>
+        <v>7505</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>6612</v>
+        <v>6388</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11539</v>
+        <v>12703</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>9047</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="16">
@@ -2105,31 +2105,31 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1010</v>
+        <v>1061</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2427</v>
+        <v>2880</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2131</v>
+        <v>2705</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8935</v>
+        <v>8055</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1975</v>
+        <v>2235</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3960</v>
+        <v>3953</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1946</v>
+        <v>1933</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8849</v>
+        <v>8169</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4135</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="19">
@@ -2140,36 +2140,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4976</v>
+        <v>4960</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>6150</v>
+        <v>5894</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12491</v>
+        <v>12175</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11363</v>
+        <v>11463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24718</v>
+        <v>22846</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8237</v>
+        <v>8145</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14047</v>
+        <v>14920</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11357</v>
+        <v>11373</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24895</v>
+        <v>23410</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>11994</v>
+        <v>11785</v>
       </c>
     </row>
     <row r="20">
@@ -2272,40 +2272,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="23">
@@ -2316,40 +2316,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
     </row>
     <row r="24">
